--- a/src/main/java/com/BhimanaGroup/testData/BhimanGroupCustomer.xlsx
+++ b/src/main/java/com/BhimanaGroup/testData/BhimanGroupCustomer.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544FFE7E-B9D4-4072-BBF6-D50B8BE61754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9AF5D0-E0E9-4337-80A5-C72F15682246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C7373BD-DD5B-4E1F-AB5D-BF3698D94BB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8C7373BD-DD5B-4E1F-AB5D-BF3698D94BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>Customer Name</t>
   </si>
@@ -468,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B18375-80A8-4B70-87F1-C0ADD1FD11F5}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,4 +614,143 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC4EAE4-E7FE-4114-AE7E-9F0E33A86E30}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8956231471</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3">
+        <v>411033</v>
+      </c>
+      <c r="J2" s="5">
+        <v>33002</v>
+      </c>
+      <c r="K2" s="5">
+        <v>43414</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>8563214790</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3">
+        <v>412033</v>
+      </c>
+      <c r="J3" s="6">
+        <v>37601</v>
+      </c>
+      <c r="K3" s="5">
+        <v>43713</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3CAA21FB-18F8-4D7D-93BB-C3418B2C046D}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6DA1B33D-816F-4B61-8357-ADE32B084143}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>